--- a/CONG NO/CONG NO 2015/LONG AN/C. Thang.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/C. Thang.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15600" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THÔI VIỆC" sheetId="1" r:id="rId1"/>
     <sheet name="TNDN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t xml:space="preserve">BẢNG TÍNH MỨC ĐÓNG BHXH </t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>NĂM</t>
+  </si>
+  <si>
+    <t>Tổng Nhập</t>
+  </si>
+  <si>
+    <t>Tổng xuất</t>
+  </si>
+  <si>
+    <t>Lợi Nhuận</t>
+  </si>
+  <si>
+    <t>Thuế suất thuế TNDN</t>
+  </si>
+  <si>
+    <t>Tồn</t>
   </si>
 </sst>
 </file>
@@ -560,24 +575,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,16 +685,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,61 +775,16 @@
     <xf numFmtId="165" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,786 +1167,786 @@
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
       <c r="N4" s="3"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7" t="s">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" s="17" customFormat="1" ht="39" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+    </row>
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="39" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="12">
         <v>2006</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
         <v>1515500</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="14">
         <v>1515500</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="14">
         <v>1515500</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="14">
         <v>1948500</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="14">
         <v>1948500</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="15">
         <v>1948500</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="16">
         <f>SUM(B6:M6)</f>
         <v>10392000</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="17">
         <v>0.15</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18">
         <f>+N6*O6</f>
         <v>1558800</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="19">
         <v>0.05</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20">
         <f>N6*S6</f>
         <v>519600</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="12">
         <v>2007</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="14">
         <v>1948500</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="14">
         <v>1948500</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="14">
         <v>1948500</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="14">
         <v>1948500</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="14">
         <v>1948500</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="14">
         <v>1948500</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="14">
         <v>1948500</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="14">
         <v>1948500</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="14">
         <v>1948500</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="14">
         <v>1948500</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="14">
         <v>1948500</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="15">
         <v>1948500</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="16">
         <f t="shared" ref="N7:N14" si="0">SUM(B7:M7)</f>
         <v>23382000</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="17">
         <v>0.15</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="17">
         <v>0.02</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18">
         <f>+N7*O7+N7*P7</f>
         <v>3974940</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="19">
         <v>0.05</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="19">
         <v>0.01</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26">
+      <c r="U7" s="19"/>
+      <c r="V7" s="20">
         <f>+N7*S7+N7*T7+N7*U7</f>
         <v>1402920</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="12">
         <v>2008</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="14">
         <v>2684600</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="14">
         <v>2684600</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <v>2684600</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="14">
         <v>2684600</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="14">
         <v>2684600</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="14">
         <v>2684600</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="14">
         <v>2684600</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="14">
         <v>2684600</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="14">
         <v>2684600</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="14">
         <v>2684600</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="14">
         <v>2684600</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="15">
         <v>2684600</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="16">
         <f t="shared" si="0"/>
         <v>32215200</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="17">
         <v>0.15</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="17">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18">
         <f>+N8*O8+N8*P8</f>
         <v>5476584</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="19">
         <v>0.05</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="19">
         <v>0.01</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26">
+      <c r="U8" s="19"/>
+      <c r="V8" s="20">
         <f t="shared" ref="V8:V14" si="1">+N8*S8+N8*T8+N8*U8</f>
         <v>1932912</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="12">
         <v>2009</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="14">
         <v>3464000</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="14">
         <v>3464000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="14">
         <v>3464000</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <v>3464000</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="14">
         <v>3464000</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="14">
         <v>3464000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="14">
         <v>3464000</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="14">
         <v>3464000</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="14">
         <v>3464000</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="14">
         <v>3464000</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="14">
         <v>3464000</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="15">
         <v>3464000</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>41568000</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="17">
         <v>0.15</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="17">
         <v>0.02</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="17">
         <v>0.01</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="18">
         <f t="shared" ref="R9:R14" si="2">+N9*O9+N9*P9+N9*Q9</f>
         <v>7482240</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="19">
         <v>0.05</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="19">
         <v>0.01</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="19">
         <v>0.01</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="20">
         <f t="shared" si="1"/>
         <v>2909760</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <v>2010</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="14">
         <v>4243400</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="14">
         <v>4243400</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>4243400</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>4243400</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="14">
         <v>4243400</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="14">
         <v>4243400</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="14">
         <v>4243400</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="14">
         <v>4243400</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>4243400</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="14">
         <v>4243400</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="14">
         <v>4243400</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="15">
         <v>4243400</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="16">
         <f t="shared" si="0"/>
         <v>50920800</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="17">
         <v>0.16</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="17">
         <v>0.03</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="17">
         <v>0.01</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="18">
         <f t="shared" si="2"/>
         <v>10184160</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="19">
         <v>0.06</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="19">
         <v>0.01</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="20">
         <f t="shared" si="1"/>
         <v>4328268</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>2011</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="14">
         <v>5854500</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="14">
         <v>5854500</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="14">
         <v>5854500</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="14">
         <v>5854500</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="14">
         <v>5854500</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="14">
         <v>6291000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="14">
         <v>6291000</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="14">
         <v>6291000</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="14">
         <v>6291000</v>
       </c>
-      <c r="K11" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="L11" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="M11" s="21">
-        <v>9320000</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="K11" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="L11" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="M11" s="15">
+        <v>9320000</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="0"/>
         <v>82396500</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="17">
         <v>0.16</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="17">
         <v>0.03</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="17">
         <v>0.01</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="18">
         <f t="shared" si="2"/>
         <v>16479300</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="19">
         <v>0.06</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="19">
         <v>0.01</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="20">
         <f t="shared" si="1"/>
         <v>7003702.5</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>2012</v>
       </c>
-      <c r="B12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="C12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="D12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="E12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="F12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="G12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="H12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="I12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="J12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="K12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="L12" s="20">
-        <v>9320000</v>
-      </c>
-      <c r="M12" s="28">
-        <v>9320000</v>
-      </c>
-      <c r="N12" s="22">
+      <c r="B12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="C12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="D12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="G12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="I12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="J12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="K12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="L12" s="14">
+        <v>9320000</v>
+      </c>
+      <c r="M12" s="22">
+        <v>9320000</v>
+      </c>
+      <c r="N12" s="16">
         <f t="shared" si="0"/>
         <v>111840000</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="17">
         <v>0.17</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="17">
         <v>0.03</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="17">
         <v>0.01</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="18">
         <f t="shared" si="2"/>
         <v>23486400</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="19">
         <v>0.01</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="20">
         <f t="shared" si="1"/>
         <v>10624800</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="12">
         <v>2013</v>
       </c>
-      <c r="B13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="C13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="D13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="E13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="F13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="G13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="H13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="I13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="J13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="K13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="L13" s="29">
-        <v>9320000</v>
-      </c>
-      <c r="M13" s="28">
-        <v>9320000</v>
-      </c>
-      <c r="N13" s="22">
+      <c r="B13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="C13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="D13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="E13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="F13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="G13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="H13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="I13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="J13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="K13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="L13" s="23">
+        <v>9320000</v>
+      </c>
+      <c r="M13" s="22">
+        <v>9320000</v>
+      </c>
+      <c r="N13" s="16">
         <f t="shared" si="0"/>
         <v>111840000</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="17">
         <v>0.17</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="17">
         <v>0.03</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="17">
         <v>0.01</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="18">
         <f t="shared" si="2"/>
         <v>23486400</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="19">
         <v>0.01</v>
       </c>
-      <c r="V13" s="26">
+      <c r="V13" s="20">
         <f t="shared" si="1"/>
         <v>10624800</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="24">
         <v>2014</v>
       </c>
-      <c r="B14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="C14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="D14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="E14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="F14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="G14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="H14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="I14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="J14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="K14" s="31">
-        <v>9320000</v>
-      </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34">
+      <c r="B14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="C14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="D14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="F14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="G14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="H14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="I14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="J14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="K14" s="25">
+        <v>9320000</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28">
         <f t="shared" si="0"/>
         <v>93200000</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="29">
         <v>0.18</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="29">
         <v>0.03</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="29">
         <v>0.01</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="30">
         <f t="shared" si="2"/>
         <v>20504000</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="31">
         <v>0.08</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="31">
         <v>0.01</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="33">
         <f t="shared" si="1"/>
         <v>9786000</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="27.75" customHeight="1">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37">
         <f>SUM(R6:R14)</f>
         <v>112632824</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="43">
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="37">
         <f>SUM(V6:V14)</f>
         <v>49132762.5</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:19" ht="42" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="52" t="s">
+      <c r="H18" s="68"/>
+      <c r="I18" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="50" t="s">
+      <c r="J18" s="68"/>
+      <c r="K18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="59" t="s">
+      <c r="L18" s="66"/>
+      <c r="M18" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="60"/>
-      <c r="O18" s="59" t="s">
+      <c r="N18" s="46"/>
+      <c r="O18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="63" t="s">
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="64"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A19" s="32">
+      <c r="A19" s="26">
         <v>1</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -1943,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="56"/>
-      <c r="G19" s="57">
+      <c r="G19" s="47">
         <v>9320000</v>
       </c>
       <c r="H19" s="56"/>
@@ -1951,26 +1966,26 @@
         <v>2.5</v>
       </c>
       <c r="J19" s="56"/>
-      <c r="K19" s="57">
+      <c r="K19" s="47">
         <f>G19/2*I19</f>
         <v>11650000</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="57">
+      <c r="L19" s="49"/>
+      <c r="M19" s="47">
         <v>8000000</v>
       </c>
       <c r="N19" s="56"/>
-      <c r="O19" s="57">
+      <c r="O19" s="47">
         <f>-V15</f>
         <v>-49132762.5</v>
       </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="65">
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="52">
         <f>K19+M19+O19</f>
         <v>-29482762.5</v>
       </c>
-      <c r="S19" s="66"/>
+      <c r="S19" s="53"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1979,6 +1994,14 @@
     <protectedRange password="CC78" sqref="B15" name="Range1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="O18:Q18"/>
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R18:S18"/>
@@ -1990,14 +2013,6 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:M6">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
@@ -2016,222 +2031,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="69">
+        <v>211716764</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69">
+        <f>B6-C6</f>
+        <v>211716764</v>
+      </c>
       <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="F6" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="69">
+        <v>12250767668</v>
+      </c>
+      <c r="C7" s="69">
+        <v>11277564250</v>
+      </c>
+      <c r="D7" s="69">
+        <f>D6+B7-C7</f>
+        <v>1184920182</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="69">
+        <v>7846579600</v>
+      </c>
+      <c r="C8" s="69">
+        <v>7926883490</v>
+      </c>
+      <c r="D8" s="69">
+        <f t="shared" ref="D8:D12" si="0">D7+B8-C8</f>
+        <v>1104616292</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="69">
+        <v>5185242290</v>
+      </c>
+      <c r="C9" s="69">
+        <v>5642780848</v>
+      </c>
+      <c r="D9" s="69">
+        <f t="shared" si="0"/>
+        <v>647077734</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="69">
+        <v>548330530</v>
+      </c>
+      <c r="C10" s="69">
+        <v>645157780</v>
+      </c>
+      <c r="D10" s="69">
+        <f t="shared" si="0"/>
+        <v>550250484</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="69">
+        <v>293258240</v>
+      </c>
+      <c r="C11" s="69">
+        <v>213567790</v>
+      </c>
+      <c r="D11" s="69">
+        <f t="shared" si="0"/>
+        <v>629940934</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13"/>
+      <c r="B12" s="69">
+        <f>SUM(B6:B11)</f>
+        <v>26335895092</v>
+      </c>
+      <c r="C12" s="69">
+        <f>SUM(C6:C11)</f>
+        <v>25705954158</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>